--- a/заказы/статистика филиалы/2023/10,23/04,10,23 КИ/дв 04,10,23 млрсч.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/04,10,23 КИ/дв 04,10,23 млрсч.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\04,10,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E740B659-4C56-4865-8036-7946B6B2EB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74050A16-2A36-47FE-918D-28CB97EA33D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -641,11 +645,13 @@
           <cell r="A1" t="str">
             <v>Период: 21.09.2023 - 28.09.2023</v>
           </cell>
+          <cell r="B1"/>
         </row>
         <row r="3">
           <cell r="A3" t="str">
             <v>Склад</v>
           </cell>
+          <cell r="B3"/>
           <cell r="C3" t="str">
             <v>АКЦИЯ</v>
           </cell>
@@ -746,6 +752,8 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5"/>
+          <cell r="B5"/>
           <cell r="F5">
             <v>42904.741999999998</v>
           </cell>
@@ -5170,7 +5178,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomLeft" activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
